--- a/Result/Orbit/Service/USA.xlsx
+++ b/Result/Orbit/Service/USA.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>71.80902863255352</v>
+        <v>71.90208997798042</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>72.41981985859105</v>
+        <v>72.2059091678031</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>72.68984179443413</v>
+        <v>72.72559828342682</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>72.81844773951202</v>
+        <v>72.87482253897662</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>74.01746915996874</v>
+        <v>73.01655734021602</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>74.86370124170796</v>
+        <v>74.32506995879407</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>74.60409933915189</v>
+        <v>75.30311671437642</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1637865273611</v>
+        <v>74.90004828088321</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>74.02568269055816</v>
+        <v>74.30103258663866</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>73.70136842050006</v>
+        <v>74.0770001149409</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>73.92206182220272</v>
+        <v>73.65262188599428</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>74.61953604030172</v>
+        <v>73.99132268374504</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>76.51433450878595</v>
+        <v>74.88526607385737</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>76.2772193576192</v>
+        <v>76.96097349761204</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>75.9014962160953</v>
+        <v>76.46461091743454</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>76.16380034260708</v>
+        <v>75.82721749136455</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>75.81605357504479</v>
+        <v>76.19193920299821</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>75.82754097311374</v>
+        <v>75.83884906513208</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>76.74239628616712</v>
+        <v>75.71179708751211</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>77.43969290342653</v>
+        <v>76.88669539287459</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -704,50 +704,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>77.43969289371675</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>77.79266298029094</v>
+      </c>
+      <c r="C2" t="n">
+        <v>76.42678494856746</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.04218337698015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>77.43969289371675</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>77.96948727585783</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76.11856288674421</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.47684327822768</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>77.43969289371675</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>78.04860644269843</v>
+      </c>
+      <c r="C4" t="n">
+        <v>75.19676978294936</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.1673537794438</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>77.43969289371675</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>78.27868441105852</v>
+      </c>
+      <c r="C5" t="n">
+        <v>74.89637399474292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>82.32699708667829</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>77.43969289371675</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>78.37491284333963</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73.87086186011912</v>
+      </c>
+      <c r="D6" t="n">
+        <v>82.8343045234557</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -795,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>71.80902863255352</v>
+        <v>71.63057728067474</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -805,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>72.41981985859105</v>
+        <v>72.59455359997082</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -815,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>72.68984179443413</v>
+        <v>72.66379391070916</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -825,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>72.81844773951202</v>
+        <v>73.18718595085252</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>74.01746915996874</v>
+        <v>73.23275703557755</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>74.86370124170796</v>
+        <v>73.86966432470174</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>74.60409933915189</v>
+        <v>74.43769197907221</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1637865273611</v>
+        <v>74.80996403520689</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>74.02568269055816</v>
+        <v>74.49200608229637</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>73.70136842050006</v>
+        <v>74.56274151703266</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>73.92206182220272</v>
+        <v>74.32517183733529</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>74.61953604030172</v>
+        <v>74.21111412432248</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>76.51433450878595</v>
+        <v>74.46167457253149</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>76.2772193576192</v>
+        <v>75.68353689618263</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>75.9014962160953</v>
+        <v>76.02587442035859</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>76.16380034260708</v>
+        <v>76.1265325197531</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>75.81605357504479</v>
+        <v>76.35484146083205</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>75.82754097311374</v>
+        <v>76.17809669880602</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>76.74239628616712</v>
+        <v>75.99437327927765</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>77.43969290342653</v>
+        <v>76.42201268034425</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>77.03139272153369</v>
+        <v>76.94405097457197</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>76.73973785773181</v>
+        <v>77.16790586774891</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>77.1995025991171</v>
+        <v>76.94115096061827</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>80.1364098690393</v>
+        <v>77.13224010708855</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>78.37621815015305</v>
+        <v>78.86281178696728</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1086,50 +1106,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>78.52459876042504</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>78.81293322124469</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77.62624933380748</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.50710326567562</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>78.52459876042504</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>79.02920805906494</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76.96944330483917</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.70471603829141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>78.52459876042504</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>79.22284714649109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>76.70382248512031</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.2748542121401</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>78.52459876042504</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>79.25747608962241</v>
+      </c>
+      <c r="C5" t="n">
+        <v>76.52738717136486</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.57863283587895</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>78.52459876042504</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>79.40741030034394</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76.61962405202483</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81.90632832069407</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
